--- a/data/trans_orig/P37B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9D4158D-1FBD-4D4B-A4FF-3C7921CE0CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80B93DBE-6152-4692-90AB-8DBA41449FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{28F93BB9-B724-4BAA-8F4D-4231DBDD0B01}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92253B5F-A7E1-45A4-854D-99968657BE61}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="367">
   <si>
     <t>Población según el motivo por el que NO se vacunaron de la gripe en 2023 (Tasa respuesta: 57,66%)</t>
   </si>
@@ -77,1045 +77,1063 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>Creo que las vacunas son peligrosas</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>Creo que las vacunas no son necesarias</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>Creo que aún no tengo necesidad de ponérmela</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>El/la médico/a me indicó que no hacía falta</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>Creo que las vacunas son peligrosas</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>Creo que las vacunas no son necesarias</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>Creo que aún no tengo necesidad de ponérmela</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>El/la médico/a me indicó que no hacía falta</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1530,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE82A79E-399D-456B-B5A9-534D87C77E42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8FCD89-8A3A-433B-9BAC-23800D433519}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1777,7 +1795,7 @@
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -1786,19 +1804,19 @@
         <v>3581</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>208</v>
@@ -1807,13 +1825,13 @@
         <v>172526</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>316</v>
@@ -1822,13 +1840,13 @@
         <v>161357</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>524</v>
@@ -1837,19 +1855,19 @@
         <v>333884</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -1858,13 +1876,13 @@
         <v>5132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -1873,13 +1891,13 @@
         <v>4870</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -1888,13 +1906,13 @@
         <v>10002</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,13 +1927,13 @@
         <v>180131</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>336</v>
@@ -1924,13 +1942,13 @@
         <v>170151</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>554</v>
@@ -1939,18 +1957,18 @@
         <v>350282</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1962,13 +1980,13 @@
         <v>100206</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -1977,13 +1995,13 @@
         <v>108364</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>195</v>
@@ -1992,13 +2010,13 @@
         <v>208570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,13 +2031,13 @@
         <v>1930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -2028,7 +2046,7 @@
         <v>6748</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>67</v>
@@ -2094,19 +2112,19 @@
         <v>23729</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>129</v>
@@ -2115,13 +2133,13 @@
         <v>190593</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>248</v>
@@ -2130,13 +2148,13 @@
         <v>199135</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>377</v>
@@ -2145,19 +2163,19 @@
         <v>389728</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -2166,13 +2184,13 @@
         <v>28653</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -2181,13 +2199,13 @@
         <v>17120</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -2196,13 +2214,13 @@
         <v>45773</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,13 +2235,13 @@
         <v>329556</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>432</v>
@@ -2232,13 +2250,13 @@
         <v>346922</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>658</v>
@@ -2247,18 +2265,18 @@
         <v>676478</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2270,13 +2288,13 @@
         <v>9320</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -2285,13 +2303,13 @@
         <v>15864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2300,13 +2318,13 @@
         <v>25184</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,13 +2339,13 @@
         <v>2202</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2336,13 +2354,13 @@
         <v>2671</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -2351,13 +2369,13 @@
         <v>4873</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,13 +2390,13 @@
         <v>5692</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2387,13 +2405,13 @@
         <v>3982</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -2402,19 +2420,19 @@
         <v>9674</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>171</v>
@@ -2423,13 +2441,13 @@
         <v>178254</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>226</v>
@@ -2438,13 +2456,13 @@
         <v>171946</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>397</v>
@@ -2453,19 +2471,19 @@
         <v>350200</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>38</v>
@@ -2474,13 +2492,13 @@
         <v>34955</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
@@ -2489,13 +2507,13 @@
         <v>53599</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="M20" s="7">
         <v>114</v>
@@ -2525,13 +2543,13 @@
         <v>230422</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>336</v>
@@ -2540,13 +2558,13 @@
         <v>248063</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>565</v>
@@ -2555,13 +2573,13 @@
         <v>478485</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,7 +2653,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2644,13 +2662,13 @@
         <v>575</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2665,7 +2683,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,10 +2698,10 @@
         <v>12644</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>155</v>
@@ -2716,13 +2734,13 @@
         <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>100</v>
@@ -2731,13 +2749,13 @@
         <v>155930</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>234</v>
@@ -2746,13 +2764,13 @@
         <v>225216</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>334</v>
@@ -2761,19 +2779,19 @@
         <v>381146</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>10</v>
@@ -2782,10 +2800,10 @@
         <v>11075</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>172</v>
@@ -2815,10 +2833,10 @@
         <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,13 +2851,13 @@
         <v>206929</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>312</v>
@@ -2848,13 +2866,13 @@
         <v>272874</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>462</v>
@@ -2863,18 +2881,18 @@
         <v>479803</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2886,13 +2904,13 @@
         <v>685</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -2901,13 +2919,13 @@
         <v>1981</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -2943,7 +2961,7 @@
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2958,7 +2976,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>188</v>
+        <v>51</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2967,13 +2985,13 @@
         <v>352</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>190</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,13 +3006,13 @@
         <v>5791</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -3003,13 +3021,13 @@
         <v>3099</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
@@ -3018,19 +3036,19 @@
         <v>8889</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>134</v>
@@ -3039,13 +3057,13 @@
         <v>99872</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H31" s="7">
         <v>188</v>
@@ -3054,13 +3072,13 @@
         <v>94413</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M31" s="7">
         <v>322</v>
@@ -3069,19 +3087,19 @@
         <v>194284</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>33</v>
@@ -3090,13 +3108,13 @@
         <v>27515</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>69</v>
@@ -3105,13 +3123,13 @@
         <v>41623</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>102</v>
@@ -3120,13 +3138,13 @@
         <v>69137</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3159,13 @@
         <v>133862</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>270</v>
@@ -3156,13 +3174,13 @@
         <v>141467</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>447</v>
@@ -3171,18 +3189,18 @@
         <v>275328</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3194,13 +3212,13 @@
         <v>4536</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -3209,13 +3227,13 @@
         <v>7140</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M34" s="7">
         <v>16</v>
@@ -3224,13 +3242,13 @@
         <v>11676</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,7 +3299,7 @@
         <v>21</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>226</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3314,13 @@
         <v>5211</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -3311,13 +3329,13 @@
         <v>2073</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M36" s="7">
         <v>10</v>
@@ -3326,19 +3344,19 @@
         <v>7284</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>212</v>
@@ -3347,13 +3365,13 @@
         <v>188575</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H37" s="7">
         <v>219</v>
@@ -3362,34 +3380,34 @@
         <v>160047</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M37" s="7">
         <v>431</v>
       </c>
       <c r="N37" s="7">
-        <v>348622</v>
+        <v>348623</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>4</v>
@@ -3398,13 +3416,13 @@
         <v>3437</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -3413,13 +3431,13 @@
         <v>2175</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -3428,13 +3446,13 @@
         <v>5612</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3467,13 @@
         <v>201759</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H39" s="7">
         <v>237</v>
@@ -3464,33 +3482,33 @@
         <v>171436</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M39" s="7">
         <v>464</v>
       </c>
       <c r="N39" s="7">
-        <v>373195</v>
+        <v>373196</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3502,13 +3520,13 @@
         <v>60599</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H40" s="7">
         <v>86</v>
@@ -3517,13 +3535,13 @@
         <v>56555</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M40" s="7">
         <v>141</v>
@@ -3532,13 +3550,13 @@
         <v>117154</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3571,13 @@
         <v>1521</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="H41" s="7">
         <v>16</v>
@@ -3568,13 +3586,13 @@
         <v>9918</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>262</v>
+        <v>122</v>
       </c>
       <c r="M41" s="7">
         <v>20</v>
@@ -3583,13 +3601,13 @@
         <v>11440</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3622,13 @@
         <v>13004</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H42" s="7">
         <v>12</v>
@@ -3619,13 +3637,13 @@
         <v>8058</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>67</v>
+        <v>270</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="M42" s="7">
         <v>23</v>
@@ -3634,19 +3652,19 @@
         <v>21062</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7">
         <v>251</v>
@@ -3655,13 +3673,13 @@
         <v>291582</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H43" s="7">
         <v>418</v>
@@ -3670,13 +3688,13 @@
         <v>321165</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M43" s="7">
         <v>669</v>
@@ -3685,19 +3703,19 @@
         <v>612748</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
         <v>32</v>
@@ -3706,13 +3724,13 @@
         <v>39585</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H44" s="7">
         <v>45</v>
@@ -3721,13 +3739,13 @@
         <v>34647</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M44" s="7">
         <v>77</v>
@@ -3736,13 +3754,13 @@
         <v>74232</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P44" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3775,13 @@
         <v>406291</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H45" s="7">
         <v>577</v>
@@ -3772,13 +3790,13 @@
         <v>430344</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M45" s="7">
         <v>930</v>
@@ -3787,18 +3805,18 @@
         <v>836636</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3810,13 +3828,13 @@
         <v>61966</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H46" s="7">
         <v>11</v>
@@ -3825,13 +3843,13 @@
         <v>8822</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M46" s="7">
         <v>21</v>
@@ -3840,13 +3858,13 @@
         <v>70788</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3879,13 @@
         <v>764</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -3876,13 +3894,13 @@
         <v>696</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>299</v>
+        <v>17</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -3891,13 +3909,13 @@
         <v>1460</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>28</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3930,13 @@
         <v>23851</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H48" s="7">
         <v>18</v>
@@ -3927,13 +3945,13 @@
         <v>21314</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M48" s="7">
         <v>40</v>
@@ -3942,19 +3960,19 @@
         <v>45165</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C49" s="7">
         <v>365</v>
@@ -3963,13 +3981,13 @@
         <v>441940</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H49" s="7">
         <v>480</v>
@@ -3978,13 +3996,13 @@
         <v>441043</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M49" s="7">
         <v>845</v>
@@ -3993,19 +4011,19 @@
         <v>882983</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C50" s="7">
         <v>18</v>
@@ -4014,13 +4032,13 @@
         <v>20305</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H50" s="7">
         <v>35</v>
@@ -4029,13 +4047,13 @@
         <v>32982</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="M50" s="7">
         <v>53</v>
@@ -4044,13 +4062,13 @@
         <v>53287</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>197</v>
+        <v>327</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>321</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4083,13 @@
         <v>548825</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H51" s="7">
         <v>545</v>
@@ -4080,13 +4098,13 @@
         <v>504858</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M51" s="7">
         <v>961</v>
@@ -4095,13 +4113,13 @@
         <v>1053683</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4136,13 @@
         <v>266200</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H52" s="7">
         <v>323</v>
@@ -4133,13 +4151,13 @@
         <v>228426</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M52" s="7">
         <v>499</v>
@@ -4148,13 +4166,13 @@
         <v>494626</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4187,13 @@
         <v>6417</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>332</v>
+        <v>25</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>117</v>
+        <v>338</v>
       </c>
       <c r="H53" s="7">
         <v>32</v>
@@ -4184,13 +4202,13 @@
         <v>21373</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>333</v>
+        <v>67</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="M53" s="7">
         <v>41</v>
@@ -4199,13 +4217,13 @@
         <v>27790</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4238,13 @@
         <v>75230</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>227</v>
+        <v>343</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>242</v>
+        <v>309</v>
       </c>
       <c r="H54" s="7">
         <v>85</v>
@@ -4235,13 +4253,13 @@
         <v>65243</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M54" s="7">
         <v>164</v>
@@ -4250,19 +4268,19 @@
         <v>140473</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>227</v>
+        <v>343</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C55" s="7">
         <v>1570</v>
@@ -4271,13 +4289,13 @@
         <v>1719272</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H55" s="7">
         <v>2329</v>
@@ -4286,13 +4304,13 @@
         <v>1774323</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M55" s="7">
         <v>3899</v>
@@ -4301,19 +4319,19 @@
         <v>3493595</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C56" s="7">
         <v>162</v>
@@ -4322,13 +4340,13 @@
         <v>170656</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="H56" s="7">
         <v>276</v>
@@ -4337,13 +4355,13 @@
         <v>196749</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M56" s="7">
         <v>438</v>
@@ -4352,13 +4370,13 @@
         <v>367406</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4391,13 @@
         <v>2237775</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H57" s="7">
         <v>3045</v>
@@ -4388,13 +4406,13 @@
         <v>2286115</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M57" s="7">
         <v>5041</v>
@@ -4403,18 +4421,18 @@
         <v>4523890</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80B93DBE-6152-4692-90AB-8DBA41449FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A8676C5-AABD-4E6C-A335-D0DC66F80A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92253B5F-A7E1-45A4-854D-99968657BE61}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0CF52E36-C28E-48D1-BECD-675134D3242A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1548,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8FCD89-8A3A-433B-9BAC-23800D433519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9759AE1E-A639-475F-9EE6-FD33BDD73CD6}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P37B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A8676C5-AABD-4E6C-A335-D0DC66F80A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9007581-7489-4C59-9633-A009656DA671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0CF52E36-C28E-48D1-BECD-675134D3242A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6D525C0-75A0-4F92-B1FE-D0EA063781B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="361">
   <si>
     <t>Población según el motivo por el que NO se vacunaron de la gripe en 2023 (Tasa respuesta: 57,66%)</t>
   </si>
@@ -77,1063 +77,1045 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>Creo que las vacunas son peligrosas</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>Creo que las vacunas no son necesarias</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>Creo que aún no tengo necesidad de ponérmela</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>El/la médico/a me indicó que no hacía falta</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>Creo que las vacunas son peligrosas</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>Creo que las vacunas no son necesarias</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>Creo que aún no tengo necesidad de ponérmela</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>El/la médico/a me indicó que no hacía falta</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
   </si>
   <si>
     <t>78,76%</t>
   </si>
   <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1548,7 +1530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9759AE1E-A639-475F-9EE6-FD33BDD73CD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C75D891-E457-4459-89EE-855E911CAED2}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1795,7 +1777,7 @@
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -1804,19 +1786,19 @@
         <v>3581</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>208</v>
@@ -1825,13 +1807,13 @@
         <v>172526</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>316</v>
@@ -1840,13 +1822,13 @@
         <v>161357</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>524</v>
@@ -1855,19 +1837,19 @@
         <v>333884</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -1876,13 +1858,13 @@
         <v>5132</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -1891,13 +1873,13 @@
         <v>4870</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -1906,13 +1888,13 @@
         <v>10002</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1909,13 @@
         <v>180131</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>336</v>
@@ -1942,13 +1924,13 @@
         <v>170151</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>554</v>
@@ -1957,18 +1939,18 @@
         <v>350282</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1980,13 +1962,13 @@
         <v>100206</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -1995,13 +1977,13 @@
         <v>108364</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>195</v>
@@ -2010,13 +1992,13 @@
         <v>208570</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,13 +2013,13 @@
         <v>1930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -2046,7 +2028,7 @@
         <v>6748</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>67</v>
@@ -2112,19 +2094,19 @@
         <v>23729</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7">
         <v>129</v>
@@ -2133,13 +2115,13 @@
         <v>190593</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>248</v>
@@ -2148,13 +2130,13 @@
         <v>199135</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>377</v>
@@ -2163,19 +2145,19 @@
         <v>389728</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -2184,13 +2166,13 @@
         <v>28653</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -2199,13 +2181,13 @@
         <v>17120</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -2214,13 +2196,13 @@
         <v>45773</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2217,13 @@
         <v>329556</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
         <v>432</v>
@@ -2250,13 +2232,13 @@
         <v>346922</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
         <v>658</v>
@@ -2265,18 +2247,18 @@
         <v>676478</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2288,13 +2270,13 @@
         <v>9320</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -2303,13 +2285,13 @@
         <v>15864</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2318,13 +2300,13 @@
         <v>25184</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2321,13 @@
         <v>2202</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2354,13 +2336,13 @@
         <v>2671</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -2369,13 +2351,13 @@
         <v>4873</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2372,13 @@
         <v>5692</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2405,13 +2387,13 @@
         <v>3982</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -2420,19 +2402,19 @@
         <v>9674</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7">
         <v>171</v>
@@ -2441,13 +2423,13 @@
         <v>178254</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>226</v>
@@ -2456,13 +2438,13 @@
         <v>171946</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>397</v>
@@ -2471,19 +2453,19 @@
         <v>350200</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7">
         <v>38</v>
@@ -2492,13 +2474,13 @@
         <v>34955</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
@@ -2507,13 +2489,13 @@
         <v>53599</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M20" s="7">
         <v>114</v>
@@ -2543,13 +2525,13 @@
         <v>230422</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
         <v>336</v>
@@ -2558,13 +2540,13 @@
         <v>248063</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
         <v>565</v>
@@ -2573,13 +2555,13 @@
         <v>478485</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,7 +2635,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2662,13 +2644,13 @@
         <v>575</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2683,7 +2665,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,10 +2680,10 @@
         <v>12644</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>155</v>
@@ -2734,13 +2716,13 @@
         <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7">
         <v>100</v>
@@ -2749,13 +2731,13 @@
         <v>155930</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>234</v>
@@ -2764,13 +2746,13 @@
         <v>225216</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>334</v>
@@ -2779,19 +2761,19 @@
         <v>381146</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
         <v>10</v>
@@ -2800,10 +2782,10 @@
         <v>11075</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>172</v>
@@ -2833,10 +2815,10 @@
         <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2833,13 @@
         <v>206929</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>312</v>
@@ -2866,13 +2848,13 @@
         <v>272874</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>462</v>
@@ -2881,18 +2863,18 @@
         <v>479803</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2904,13 +2886,13 @@
         <v>685</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -2919,13 +2901,13 @@
         <v>1981</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -2961,7 +2943,7 @@
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2976,7 +2958,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2985,13 +2967,13 @@
         <v>352</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +2988,13 @@
         <v>5791</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -3021,13 +3003,13 @@
         <v>3099</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
@@ -3036,19 +3018,19 @@
         <v>8889</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="7">
         <v>134</v>
@@ -3057,13 +3039,13 @@
         <v>99872</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H31" s="7">
         <v>188</v>
@@ -3072,13 +3054,13 @@
         <v>94413</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M31" s="7">
         <v>322</v>
@@ -3087,19 +3069,19 @@
         <v>194284</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7">
         <v>33</v>
@@ -3108,13 +3090,13 @@
         <v>27515</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>69</v>
@@ -3123,13 +3105,13 @@
         <v>41623</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>102</v>
@@ -3138,13 +3120,13 @@
         <v>69137</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3141,13 @@
         <v>133862</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H33" s="7">
         <v>270</v>
@@ -3174,13 +3156,13 @@
         <v>141467</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M33" s="7">
         <v>447</v>
@@ -3189,18 +3171,18 @@
         <v>275328</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3212,13 +3194,13 @@
         <v>4536</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -3227,13 +3209,13 @@
         <v>7140</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M34" s="7">
         <v>16</v>
@@ -3242,13 +3224,13 @@
         <v>11676</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,7 +3281,7 @@
         <v>21</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3296,13 @@
         <v>5211</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -3329,13 +3311,13 @@
         <v>2073</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M36" s="7">
         <v>10</v>
@@ -3344,19 +3326,19 @@
         <v>7284</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="7">
         <v>212</v>
@@ -3365,13 +3347,13 @@
         <v>188575</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H37" s="7">
         <v>219</v>
@@ -3380,34 +3362,34 @@
         <v>160047</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M37" s="7">
         <v>431</v>
       </c>
       <c r="N37" s="7">
-        <v>348623</v>
+        <v>348622</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" s="7">
         <v>4</v>
@@ -3416,13 +3398,13 @@
         <v>3437</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -3431,13 +3413,13 @@
         <v>2175</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -3446,13 +3428,13 @@
         <v>5612</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3449,13 @@
         <v>201759</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H39" s="7">
         <v>237</v>
@@ -3482,33 +3464,33 @@
         <v>171436</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M39" s="7">
         <v>464</v>
       </c>
       <c r="N39" s="7">
-        <v>373196</v>
+        <v>373195</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3520,13 +3502,13 @@
         <v>60599</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H40" s="7">
         <v>86</v>
@@ -3535,13 +3517,13 @@
         <v>56555</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M40" s="7">
         <v>141</v>
@@ -3550,13 +3532,13 @@
         <v>117154</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3553,13 @@
         <v>1521</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H41" s="7">
         <v>16</v>
@@ -3586,13 +3568,13 @@
         <v>9918</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>122</v>
+        <v>262</v>
       </c>
       <c r="M41" s="7">
         <v>20</v>
@@ -3601,13 +3583,13 @@
         <v>11440</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3604,13 @@
         <v>13004</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H42" s="7">
         <v>12</v>
@@ -3637,13 +3619,13 @@
         <v>8058</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>270</v>
+        <v>67</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>107</v>
+        <v>268</v>
       </c>
       <c r="M42" s="7">
         <v>23</v>
@@ -3652,19 +3634,19 @@
         <v>21062</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C43" s="7">
         <v>251</v>
@@ -3673,13 +3655,13 @@
         <v>291582</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H43" s="7">
         <v>418</v>
@@ -3688,13 +3670,13 @@
         <v>321165</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M43" s="7">
         <v>669</v>
@@ -3703,19 +3685,19 @@
         <v>612748</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" s="7">
         <v>32</v>
@@ -3724,13 +3706,13 @@
         <v>39585</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H44" s="7">
         <v>45</v>
@@ -3739,13 +3721,13 @@
         <v>34647</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M44" s="7">
         <v>77</v>
@@ -3754,13 +3736,13 @@
         <v>74232</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3757,13 @@
         <v>406291</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H45" s="7">
         <v>577</v>
@@ -3790,13 +3772,13 @@
         <v>430344</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M45" s="7">
         <v>930</v>
@@ -3805,18 +3787,18 @@
         <v>836636</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3828,13 +3810,13 @@
         <v>61966</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H46" s="7">
         <v>11</v>
@@ -3843,13 +3825,13 @@
         <v>8822</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M46" s="7">
         <v>21</v>
@@ -3858,13 +3840,13 @@
         <v>70788</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3861,13 @@
         <v>764</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -3894,13 +3876,13 @@
         <v>696</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -3909,13 +3891,13 @@
         <v>1460</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>302</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3912,13 @@
         <v>23851</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H48" s="7">
         <v>18</v>
@@ -3945,13 +3927,13 @@
         <v>21314</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M48" s="7">
         <v>40</v>
@@ -3960,19 +3942,19 @@
         <v>45165</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C49" s="7">
         <v>365</v>
@@ -3981,13 +3963,13 @@
         <v>441940</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H49" s="7">
         <v>480</v>
@@ -3996,13 +3978,13 @@
         <v>441043</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>316</v>
+        <v>164</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M49" s="7">
         <v>845</v>
@@ -4011,19 +3993,19 @@
         <v>882983</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C50" s="7">
         <v>18</v>
@@ -4032,13 +4014,13 @@
         <v>20305</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H50" s="7">
         <v>35</v>
@@ -4047,13 +4029,13 @@
         <v>32982</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M50" s="7">
         <v>53</v>
@@ -4062,13 +4044,13 @@
         <v>53287</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="P50" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4065,13 @@
         <v>548825</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H51" s="7">
         <v>545</v>
@@ -4098,13 +4080,13 @@
         <v>504858</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M51" s="7">
         <v>961</v>
@@ -4113,13 +4095,13 @@
         <v>1053683</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4118,13 @@
         <v>266200</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H52" s="7">
         <v>323</v>
@@ -4151,13 +4133,13 @@
         <v>228426</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M52" s="7">
         <v>499</v>
@@ -4166,13 +4148,13 @@
         <v>494626</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4169,13 @@
         <v>6417</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>25</v>
+        <v>332</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>338</v>
+        <v>117</v>
       </c>
       <c r="H53" s="7">
         <v>32</v>
@@ -4202,13 +4184,13 @@
         <v>21373</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>67</v>
+        <v>333</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="M53" s="7">
         <v>41</v>
@@ -4217,13 +4199,13 @@
         <v>27790</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4220,13 @@
         <v>75230</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>309</v>
+        <v>242</v>
       </c>
       <c r="H54" s="7">
         <v>85</v>
@@ -4253,13 +4235,13 @@
         <v>65243</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M54" s="7">
         <v>164</v>
@@ -4268,19 +4250,19 @@
         <v>140473</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C55" s="7">
         <v>1570</v>
@@ -4289,13 +4271,13 @@
         <v>1719272</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H55" s="7">
         <v>2329</v>
@@ -4304,13 +4286,13 @@
         <v>1774323</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M55" s="7">
         <v>3899</v>
@@ -4319,19 +4301,19 @@
         <v>3493595</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C56" s="7">
         <v>162</v>
@@ -4340,13 +4322,13 @@
         <v>170656</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H56" s="7">
         <v>276</v>
@@ -4355,13 +4337,13 @@
         <v>196749</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M56" s="7">
         <v>438</v>
@@ -4370,13 +4352,13 @@
         <v>367406</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4373,13 @@
         <v>2237775</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H57" s="7">
         <v>3045</v>
@@ -4406,13 +4388,13 @@
         <v>2286115</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M57" s="7">
         <v>5041</v>
@@ -4421,18 +4403,18 @@
         <v>4523890</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9007581-7489-4C59-9633-A009656DA671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7C7E066-E209-43AE-84A8-E56DBE65D8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6D525C0-75A0-4F92-B1FE-D0EA063781B2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4758FF33-D685-48E6-94E7-C91A691DF24F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="366">
   <si>
     <t>Población según el motivo por el que NO se vacunaron de la gripe en 2023 (Tasa respuesta: 57,66%)</t>
   </si>
@@ -71,1051 +71,1066 @@
     <t>Otros</t>
   </si>
   <si>
-    <t>0,89%</t>
+    <t>0,84%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>Creo que las vacunas son peligrosas</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>Creo que las vacunas no son necesarias</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>Creo que aún no tengo necesidad de ponérmela</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>El/la médico/a me indicó que no hacía falta</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>Creo que las vacunas son peligrosas</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>Creo que las vacunas no son necesarias</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>Creo que aún no tengo necesidad de ponérmela</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>El/la médico/a me indicó que no hacía falta</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1530,7 +1545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C75D891-E457-4459-89EE-855E911CAED2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD8BEE2-3B67-410C-8176-D2AFBBDD83A5}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1651,7 +1666,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1610</v>
+        <v>1846</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1666,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>792</v>
+        <v>830</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1681,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>2402</v>
+        <v>2677</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1717,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
@@ -1732,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -1753,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>863</v>
+        <v>944</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -1768,7 +1783,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>2718</v>
+        <v>2777</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1777,124 +1792,124 @@
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>3581</v>
+        <v>3720</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>208</v>
       </c>
       <c r="D7" s="7">
-        <v>172526</v>
+        <v>211930</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>316</v>
       </c>
       <c r="I7" s="7">
-        <v>161357</v>
+        <v>175038</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>524</v>
       </c>
       <c r="N7" s="7">
-        <v>333884</v>
+        <v>386969</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>5132</v>
+        <v>6252</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>4870</v>
+        <v>5079</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
       </c>
       <c r="N8" s="7">
-        <v>10002</v>
+        <v>11332</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,51 +1921,51 @@
         <v>218</v>
       </c>
       <c r="D9" s="7">
-        <v>180131</v>
+        <v>220972</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>336</v>
       </c>
       <c r="I9" s="7">
-        <v>170151</v>
+        <v>184139</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>554</v>
       </c>
       <c r="N9" s="7">
-        <v>350282</v>
+        <v>405112</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1959,46 +1974,46 @@
         <v>66</v>
       </c>
       <c r="D10" s="7">
-        <v>100206</v>
+        <v>101754</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
       </c>
       <c r="I10" s="7">
-        <v>108364</v>
+        <v>100438</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>195</v>
       </c>
       <c r="N10" s="7">
-        <v>208570</v>
+        <v>202192</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,46 +2025,46 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1930</v>
+        <v>1879</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>6748</v>
+        <v>6245</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>8678</v>
+        <v>8123</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,148 +2076,148 @@
         <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>8175</v>
+        <v>7902</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
       </c>
       <c r="I12" s="7">
-        <v>15554</v>
+        <v>14658</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>30</v>
       </c>
       <c r="N12" s="7">
-        <v>23729</v>
+        <v>22560</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>129</v>
       </c>
       <c r="D13" s="7">
-        <v>190593</v>
+        <v>192264</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>248</v>
       </c>
       <c r="I13" s="7">
-        <v>199135</v>
+        <v>185879</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>377</v>
       </c>
       <c r="N13" s="7">
-        <v>389728</v>
+        <v>378142</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
       </c>
       <c r="D14" s="7">
-        <v>28653</v>
+        <v>28896</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
       </c>
       <c r="I14" s="7">
-        <v>17120</v>
+        <v>16019</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
       </c>
       <c r="N14" s="7">
-        <v>45773</v>
+        <v>44915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,51 +2229,51 @@
         <v>226</v>
       </c>
       <c r="D15" s="7">
-        <v>329556</v>
+        <v>332694</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>432</v>
       </c>
       <c r="I15" s="7">
-        <v>346922</v>
+        <v>323239</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>658</v>
       </c>
       <c r="N15" s="7">
-        <v>676478</v>
+        <v>655933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2267,46 +2282,46 @@
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>9320</v>
+        <v>9010</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>15864</v>
+        <v>14875</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
       </c>
       <c r="N16" s="7">
-        <v>25184</v>
+        <v>23885</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,46 +2333,46 @@
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>2202</v>
+        <v>2155</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>2671</v>
+        <v>2527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>4873</v>
+        <v>4682</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,148 +2384,148 @@
         <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>5692</v>
+        <v>5521</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>3982</v>
+        <v>3750</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>9674</v>
+        <v>9271</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>171</v>
       </c>
       <c r="D19" s="7">
-        <v>178254</v>
+        <v>177452</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>226</v>
       </c>
       <c r="I19" s="7">
-        <v>171946</v>
+        <v>161516</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>397</v>
       </c>
       <c r="N19" s="7">
-        <v>350200</v>
+        <v>338969</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>38</v>
       </c>
       <c r="D20" s="7">
-        <v>34955</v>
+        <v>34271</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
       </c>
       <c r="I20" s="7">
-        <v>53599</v>
+        <v>50592</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>114</v>
       </c>
       <c r="N20" s="7">
-        <v>88554</v>
+        <v>84864</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,51 +2537,51 @@
         <v>229</v>
       </c>
       <c r="D21" s="7">
-        <v>230422</v>
+        <v>228409</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>336</v>
       </c>
       <c r="I21" s="7">
-        <v>248063</v>
+        <v>233261</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>565</v>
       </c>
       <c r="N21" s="7">
-        <v>478485</v>
+        <v>461670</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2575,46 +2590,46 @@
         <v>25</v>
       </c>
       <c r="D22" s="7">
-        <v>27280</v>
+        <v>25928</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
       </c>
       <c r="I22" s="7">
-        <v>28907</v>
+        <v>26937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
       </c>
       <c r="N22" s="7">
-        <v>56187</v>
+        <v>52864</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,28 +2650,28 @@
         <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>25</v>
@@ -2665,7 +2680,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,148 +2692,148 @@
         <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>12644</v>
+        <v>12016</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>8444</v>
+        <v>7831</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
       </c>
       <c r="N24" s="7">
-        <v>21088</v>
+        <v>19848</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>100</v>
       </c>
       <c r="D25" s="7">
-        <v>155930</v>
+        <v>153690</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>234</v>
       </c>
       <c r="I25" s="7">
-        <v>225216</v>
+        <v>286703</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>334</v>
       </c>
       <c r="N25" s="7">
-        <v>381146</v>
+        <v>440393</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>10</v>
       </c>
       <c r="D26" s="7">
-        <v>11075</v>
+        <v>10826</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
       </c>
       <c r="I26" s="7">
-        <v>9732</v>
+        <v>9085</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
       </c>
       <c r="N26" s="7">
-        <v>20807</v>
+        <v>19911</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,51 +2845,51 @@
         <v>150</v>
       </c>
       <c r="D27" s="7">
-        <v>206929</v>
+        <v>202460</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>312</v>
       </c>
       <c r="I27" s="7">
-        <v>272874</v>
+        <v>331092</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>462</v>
       </c>
       <c r="N27" s="7">
-        <v>479803</v>
+        <v>533552</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2883,46 +2898,46 @@
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>685</v>
+        <v>614</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
       </c>
       <c r="I28" s="7">
-        <v>1981</v>
+        <v>1806</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
       </c>
       <c r="N28" s="7">
-        <v>2665</v>
+        <v>2420</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,37 +2958,37 @@
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,148 +3000,148 @@
         <v>9</v>
       </c>
       <c r="D30" s="7">
-        <v>5791</v>
+        <v>5277</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
       </c>
       <c r="I30" s="7">
-        <v>3099</v>
+        <v>2810</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
       </c>
       <c r="N30" s="7">
-        <v>8889</v>
+        <v>8087</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>134</v>
       </c>
       <c r="D31" s="7">
-        <v>99872</v>
+        <v>90775</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H31" s="7">
         <v>188</v>
       </c>
       <c r="I31" s="7">
-        <v>94413</v>
+        <v>84960</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>322</v>
       </c>
       <c r="N31" s="7">
-        <v>194284</v>
+        <v>175735</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>33</v>
       </c>
       <c r="D32" s="7">
-        <v>27515</v>
+        <v>24841</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>69</v>
       </c>
       <c r="I32" s="7">
-        <v>41623</v>
+        <v>36496</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M32" s="7">
         <v>102</v>
       </c>
       <c r="N32" s="7">
-        <v>69137</v>
+        <v>61337</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,51 +3153,51 @@
         <v>177</v>
       </c>
       <c r="D33" s="7">
-        <v>133862</v>
+        <v>121506</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>270</v>
       </c>
       <c r="I33" s="7">
-        <v>141467</v>
+        <v>126401</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>447</v>
       </c>
       <c r="N33" s="7">
-        <v>275328</v>
+        <v>247907</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3191,46 +3206,46 @@
         <v>5</v>
       </c>
       <c r="D34" s="7">
-        <v>4536</v>
+        <v>4377</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
       </c>
       <c r="I34" s="7">
-        <v>7140</v>
+        <v>6601</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M34" s="7">
         <v>16</v>
       </c>
       <c r="N34" s="7">
-        <v>11676</v>
+        <v>10978</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,7 +3266,7 @@
         <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3266,7 +3281,7 @@
         <v>21</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3281,7 +3296,7 @@
         <v>21</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>226</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,148 +3308,148 @@
         <v>6</v>
       </c>
       <c r="D36" s="7">
-        <v>5211</v>
+        <v>4953</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
       </c>
       <c r="I36" s="7">
-        <v>2073</v>
+        <v>1917</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M36" s="7">
         <v>10</v>
       </c>
       <c r="N36" s="7">
-        <v>7284</v>
+        <v>6870</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>212</v>
       </c>
       <c r="D37" s="7">
-        <v>188575</v>
+        <v>184841</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H37" s="7">
         <v>219</v>
       </c>
       <c r="I37" s="7">
-        <v>160047</v>
+        <v>149329</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M37" s="7">
         <v>431</v>
       </c>
       <c r="N37" s="7">
-        <v>348622</v>
+        <v>334170</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>3437</v>
+        <v>3385</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>2175</v>
+        <v>2015</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
       </c>
       <c r="N38" s="7">
-        <v>5612</v>
+        <v>5400</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,51 +3461,51 @@
         <v>227</v>
       </c>
       <c r="D39" s="7">
-        <v>201759</v>
+        <v>197556</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>237</v>
       </c>
       <c r="I39" s="7">
-        <v>171436</v>
+        <v>159861</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>464</v>
       </c>
       <c r="N39" s="7">
-        <v>373195</v>
+        <v>357417</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3499,46 +3514,46 @@
         <v>55</v>
       </c>
       <c r="D40" s="7">
-        <v>60599</v>
+        <v>58908</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H40" s="7">
         <v>86</v>
       </c>
       <c r="I40" s="7">
-        <v>56555</v>
+        <v>52731</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M40" s="7">
         <v>141</v>
       </c>
       <c r="N40" s="7">
-        <v>117154</v>
+        <v>111639</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,46 +3565,46 @@
         <v>4</v>
       </c>
       <c r="D41" s="7">
-        <v>1521</v>
+        <v>1485</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>30</v>
+        <v>265</v>
       </c>
       <c r="H41" s="7">
         <v>16</v>
       </c>
       <c r="I41" s="7">
-        <v>9918</v>
+        <v>9150</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M41" s="7">
         <v>20</v>
       </c>
       <c r="N41" s="7">
-        <v>11440</v>
+        <v>10635</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>265</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,148 +3616,148 @@
         <v>11</v>
       </c>
       <c r="D42" s="7">
-        <v>13004</v>
+        <v>17123</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H42" s="7">
         <v>12</v>
       </c>
       <c r="I42" s="7">
-        <v>8058</v>
+        <v>7382</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M42" s="7">
         <v>23</v>
       </c>
       <c r="N42" s="7">
-        <v>21062</v>
+        <v>24505</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7">
         <v>251</v>
       </c>
       <c r="D43" s="7">
-        <v>291582</v>
+        <v>293747</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H43" s="7">
         <v>418</v>
       </c>
       <c r="I43" s="7">
-        <v>321165</v>
+        <v>300959</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M43" s="7">
         <v>669</v>
       </c>
       <c r="N43" s="7">
-        <v>612748</v>
+        <v>594706</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
         <v>32</v>
       </c>
       <c r="D44" s="7">
-        <v>39585</v>
+        <v>39887</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H44" s="7">
         <v>45</v>
       </c>
       <c r="I44" s="7">
-        <v>34647</v>
+        <v>31943</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M44" s="7">
         <v>77</v>
       </c>
       <c r="N44" s="7">
-        <v>74232</v>
+        <v>71830</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,51 +3769,51 @@
         <v>353</v>
       </c>
       <c r="D45" s="7">
-        <v>406291</v>
+        <v>411150</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>577</v>
       </c>
       <c r="I45" s="7">
-        <v>430344</v>
+        <v>402165</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>930</v>
       </c>
       <c r="N45" s="7">
-        <v>836636</v>
+        <v>813315</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3807,46 +3822,46 @@
         <v>10</v>
       </c>
       <c r="D46" s="7">
-        <v>61966</v>
+        <v>253722</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H46" s="7">
         <v>11</v>
       </c>
       <c r="I46" s="7">
-        <v>8822</v>
+        <v>7338</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>11</v>
+        <v>301</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="M46" s="7">
         <v>21</v>
       </c>
       <c r="N46" s="7">
-        <v>70788</v>
+        <v>261060</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,46 +3873,46 @@
         <v>1</v>
       </c>
       <c r="D47" s="7">
-        <v>764</v>
+        <v>672</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>299</v>
+        <v>186</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
       </c>
       <c r="I47" s="7">
-        <v>696</v>
+        <v>595</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
       </c>
       <c r="N47" s="7">
-        <v>1460</v>
+        <v>1267</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>28</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,148 +3924,148 @@
         <v>22</v>
       </c>
       <c r="D48" s="7">
-        <v>23851</v>
+        <v>20333</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H48" s="7">
         <v>18</v>
       </c>
       <c r="I48" s="7">
-        <v>21314</v>
+        <v>16985</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>103</v>
+        <v>308</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M48" s="7">
         <v>40</v>
       </c>
       <c r="N48" s="7">
-        <v>45165</v>
+        <v>37318</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C49" s="7">
         <v>365</v>
       </c>
       <c r="D49" s="7">
-        <v>441940</v>
+        <v>371852</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H49" s="7">
         <v>480</v>
       </c>
       <c r="I49" s="7">
-        <v>441043</v>
+        <v>360830</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>164</v>
+        <v>317</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="M49" s="7">
         <v>845</v>
       </c>
       <c r="N49" s="7">
-        <v>882983</v>
+        <v>732683</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C50" s="7">
         <v>18</v>
       </c>
       <c r="D50" s="7">
-        <v>20305</v>
+        <v>17260</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H50" s="7">
         <v>35</v>
       </c>
       <c r="I50" s="7">
-        <v>32982</v>
+        <v>27155</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M50" s="7">
         <v>53</v>
       </c>
       <c r="N50" s="7">
-        <v>53287</v>
+        <v>44415</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>197</v>
+        <v>326</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,46 +4077,46 @@
         <v>416</v>
       </c>
       <c r="D51" s="7">
-        <v>548825</v>
+        <v>663839</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H51" s="7">
         <v>545</v>
       </c>
       <c r="I51" s="7">
-        <v>504858</v>
+        <v>412903</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M51" s="7">
         <v>961</v>
       </c>
       <c r="N51" s="7">
-        <v>1053683</v>
+        <v>1076742</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,46 +4130,46 @@
         <v>176</v>
       </c>
       <c r="D52" s="7">
-        <v>266200</v>
+        <v>456159</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H52" s="7">
         <v>323</v>
       </c>
       <c r="I52" s="7">
-        <v>228426</v>
+        <v>211556</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M52" s="7">
         <v>499</v>
       </c>
       <c r="N52" s="7">
-        <v>494626</v>
+        <v>667715</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,46 +4181,46 @@
         <v>9</v>
       </c>
       <c r="D53" s="7">
-        <v>6417</v>
+        <v>6191</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>331</v>
+        <v>191</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>332</v>
+        <v>25</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>117</v>
+        <v>337</v>
       </c>
       <c r="H53" s="7">
         <v>32</v>
       </c>
       <c r="I53" s="7">
-        <v>21373</v>
+        <v>19795</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>333</v>
+        <v>197</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M53" s="7">
         <v>41</v>
       </c>
       <c r="N53" s="7">
-        <v>27790</v>
+        <v>25986</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>336</v>
+        <v>34</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>228</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,148 +4232,148 @@
         <v>79</v>
       </c>
       <c r="D54" s="7">
-        <v>75230</v>
+        <v>74068</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>242</v>
+        <v>342</v>
       </c>
       <c r="H54" s="7">
         <v>85</v>
       </c>
       <c r="I54" s="7">
-        <v>65243</v>
+        <v>58110</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M54" s="7">
         <v>164</v>
       </c>
       <c r="N54" s="7">
-        <v>140473</v>
+        <v>132178</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>227</v>
+        <v>347</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C55" s="7">
         <v>1570</v>
       </c>
       <c r="D55" s="7">
-        <v>1719272</v>
+        <v>1676552</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H55" s="7">
         <v>2329</v>
       </c>
       <c r="I55" s="7">
-        <v>1774323</v>
+        <v>1705215</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M55" s="7">
         <v>3899</v>
       </c>
       <c r="N55" s="7">
-        <v>3493595</v>
+        <v>3381767</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C56" s="7">
         <v>162</v>
       </c>
       <c r="D56" s="7">
-        <v>170656</v>
+        <v>165617</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H56" s="7">
         <v>276</v>
       </c>
       <c r="I56" s="7">
-        <v>196749</v>
+        <v>178385</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="M56" s="7">
         <v>438</v>
       </c>
       <c r="N56" s="7">
-        <v>367406</v>
+        <v>344002</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,51 +4385,51 @@
         <v>1996</v>
       </c>
       <c r="D57" s="7">
-        <v>2237775</v>
+        <v>2378587</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H57" s="7">
         <v>3045</v>
       </c>
       <c r="I57" s="7">
-        <v>2286115</v>
+        <v>2173061</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M57" s="7">
         <v>5041</v>
       </c>
       <c r="N57" s="7">
-        <v>4523890</v>
+        <v>4551648</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
